--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_299.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_299.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32136-d225975-Reviews-Good_Nite_Inn_Calabasas-Calabasas_California.html</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>743</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Good-Nite-Inn-Calabasas.h49940.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_299.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_299.xlsx
@@ -10180,7 +10180,7 @@
         <v>32340</v>
       </c>
       <c r="B2" t="n">
-        <v>149400</v>
+        <v>180885</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -10245,7 +10245,7 @@
         <v>32340</v>
       </c>
       <c r="B3" t="n">
-        <v>149401</v>
+        <v>180886</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -10316,7 +10316,7 @@
         <v>32340</v>
       </c>
       <c r="B4" t="n">
-        <v>149402</v>
+        <v>180887</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -10381,7 +10381,7 @@
         <v>32340</v>
       </c>
       <c r="B5" t="n">
-        <v>149403</v>
+        <v>180888</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -10446,7 +10446,7 @@
         <v>32340</v>
       </c>
       <c r="B6" t="n">
-        <v>149404</v>
+        <v>180889</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -10517,7 +10517,7 @@
         <v>32340</v>
       </c>
       <c r="B7" t="n">
-        <v>149405</v>
+        <v>180890</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -10582,7 +10582,7 @@
         <v>32340</v>
       </c>
       <c r="B8" t="n">
-        <v>149406</v>
+        <v>180891</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -10643,7 +10643,7 @@
         <v>32340</v>
       </c>
       <c r="B9" t="n">
-        <v>149407</v>
+        <v>180892</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
@@ -10779,7 +10779,7 @@
         <v>32340</v>
       </c>
       <c r="B11" t="n">
-        <v>149408</v>
+        <v>180893</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -10990,7 +10990,7 @@
         <v>32340</v>
       </c>
       <c r="B14" t="n">
-        <v>149409</v>
+        <v>180894</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -11061,7 +11061,7 @@
         <v>32340</v>
       </c>
       <c r="B15" t="n">
-        <v>149410</v>
+        <v>180895</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -11126,7 +11126,7 @@
         <v>32340</v>
       </c>
       <c r="B16" t="n">
-        <v>149411</v>
+        <v>180896</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
@@ -11191,7 +11191,7 @@
         <v>32340</v>
       </c>
       <c r="B17" t="n">
-        <v>149412</v>
+        <v>180897</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -11325,7 +11325,7 @@
         <v>32340</v>
       </c>
       <c r="B19" t="n">
-        <v>149413</v>
+        <v>180898</v>
       </c>
       <c r="C19" t="s">
         <v>204</v>
@@ -11396,7 +11396,7 @@
         <v>32340</v>
       </c>
       <c r="B20" t="n">
-        <v>149414</v>
+        <v>180899</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -11457,7 +11457,7 @@
         <v>32340</v>
       </c>
       <c r="B21" t="n">
-        <v>149415</v>
+        <v>180900</v>
       </c>
       <c r="C21" t="s">
         <v>222</v>
@@ -11522,7 +11522,7 @@
         <v>32340</v>
       </c>
       <c r="B22" t="n">
-        <v>149416</v>
+        <v>180901</v>
       </c>
       <c r="C22" t="s">
         <v>232</v>
@@ -11587,7 +11587,7 @@
         <v>32340</v>
       </c>
       <c r="B23" t="n">
-        <v>149417</v>
+        <v>180902</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -11800,7 +11800,7 @@
         <v>32340</v>
       </c>
       <c r="B26" t="n">
-        <v>149418</v>
+        <v>180903</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
@@ -12005,7 +12005,7 @@
         <v>32340</v>
       </c>
       <c r="B29" t="n">
-        <v>149419</v>
+        <v>180904</v>
       </c>
       <c r="C29" t="s">
         <v>299</v>
@@ -12074,7 +12074,7 @@
         <v>32340</v>
       </c>
       <c r="B30" t="n">
-        <v>149420</v>
+        <v>180905</v>
       </c>
       <c r="C30" t="s">
         <v>308</v>
@@ -12139,7 +12139,7 @@
         <v>32340</v>
       </c>
       <c r="B31" t="n">
-        <v>149421</v>
+        <v>180906</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
@@ -12208,7 +12208,7 @@
         <v>32340</v>
       </c>
       <c r="B32" t="n">
-        <v>149422</v>
+        <v>180907</v>
       </c>
       <c r="C32" t="s">
         <v>327</v>
@@ -12279,7 +12279,7 @@
         <v>32340</v>
       </c>
       <c r="B33" t="n">
-        <v>149423</v>
+        <v>180908</v>
       </c>
       <c r="C33" t="s">
         <v>337</v>
@@ -12346,7 +12346,7 @@
         <v>32340</v>
       </c>
       <c r="B34" t="n">
-        <v>149424</v>
+        <v>180909</v>
       </c>
       <c r="C34" t="s">
         <v>346</v>
@@ -12411,7 +12411,7 @@
         <v>32340</v>
       </c>
       <c r="B35" t="n">
-        <v>149425</v>
+        <v>180910</v>
       </c>
       <c r="C35" t="s">
         <v>353</v>
@@ -12480,7 +12480,7 @@
         <v>32340</v>
       </c>
       <c r="B36" t="n">
-        <v>149426</v>
+        <v>180911</v>
       </c>
       <c r="C36" t="s">
         <v>362</v>
@@ -12545,7 +12545,7 @@
         <v>32340</v>
       </c>
       <c r="B37" t="n">
-        <v>149427</v>
+        <v>180912</v>
       </c>
       <c r="C37" t="s">
         <v>371</v>
@@ -12687,7 +12687,7 @@
         <v>32340</v>
       </c>
       <c r="B39" t="n">
-        <v>149428</v>
+        <v>180913</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -12756,7 +12756,7 @@
         <v>32340</v>
       </c>
       <c r="B40" t="n">
-        <v>149429</v>
+        <v>180914</v>
       </c>
       <c r="C40" t="s">
         <v>397</v>
@@ -12827,7 +12827,7 @@
         <v>32340</v>
       </c>
       <c r="B41" t="n">
-        <v>149430</v>
+        <v>180915</v>
       </c>
       <c r="C41" t="s">
         <v>406</v>
@@ -13026,7 +13026,7 @@
         <v>32340</v>
       </c>
       <c r="B44" t="n">
-        <v>149431</v>
+        <v>180916</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
@@ -13091,7 +13091,7 @@
         <v>32340</v>
       </c>
       <c r="B45" t="n">
-        <v>149432</v>
+        <v>180917</v>
       </c>
       <c r="C45" t="s">
         <v>444</v>
@@ -13156,7 +13156,7 @@
         <v>32340</v>
       </c>
       <c r="B46" t="n">
-        <v>149433</v>
+        <v>180918</v>
       </c>
       <c r="C46" t="s">
         <v>453</v>
@@ -13221,7 +13221,7 @@
         <v>32340</v>
       </c>
       <c r="B47" t="n">
-        <v>149434</v>
+        <v>180919</v>
       </c>
       <c r="C47" t="s">
         <v>462</v>
@@ -13286,7 +13286,7 @@
         <v>32340</v>
       </c>
       <c r="B48" t="n">
-        <v>149435</v>
+        <v>180920</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
@@ -13351,7 +13351,7 @@
         <v>32340</v>
       </c>
       <c r="B49" t="n">
-        <v>149436</v>
+        <v>180921</v>
       </c>
       <c r="C49" t="s">
         <v>481</v>
@@ -13416,7 +13416,7 @@
         <v>32340</v>
       </c>
       <c r="B50" t="n">
-        <v>149437</v>
+        <v>180922</v>
       </c>
       <c r="C50" t="s">
         <v>490</v>
@@ -13481,7 +13481,7 @@
         <v>32340</v>
       </c>
       <c r="B51" t="n">
-        <v>149438</v>
+        <v>180923</v>
       </c>
       <c r="C51" t="s">
         <v>500</v>
@@ -13552,7 +13552,7 @@
         <v>32340</v>
       </c>
       <c r="B52" t="n">
-        <v>149439</v>
+        <v>180924</v>
       </c>
       <c r="C52" t="s">
         <v>509</v>
@@ -13617,7 +13617,7 @@
         <v>32340</v>
       </c>
       <c r="B53" t="n">
-        <v>149440</v>
+        <v>180925</v>
       </c>
       <c r="C53" t="s">
         <v>518</v>
@@ -13682,7 +13682,7 @@
         <v>32340</v>
       </c>
       <c r="B54" t="n">
-        <v>149441</v>
+        <v>180926</v>
       </c>
       <c r="C54" t="s">
         <v>527</v>
@@ -13747,7 +13747,7 @@
         <v>32340</v>
       </c>
       <c r="B55" t="n">
-        <v>149442</v>
+        <v>149449</v>
       </c>
       <c r="C55" t="s">
         <v>534</v>
@@ -13812,7 +13812,7 @@
         <v>32340</v>
       </c>
       <c r="B56" t="n">
-        <v>149443</v>
+        <v>180927</v>
       </c>
       <c r="C56" t="s">
         <v>541</v>
@@ -14011,7 +14011,7 @@
         <v>32340</v>
       </c>
       <c r="B59" t="n">
-        <v>149444</v>
+        <v>180928</v>
       </c>
       <c r="C59" t="s">
         <v>569</v>
@@ -14076,7 +14076,7 @@
         <v>32340</v>
       </c>
       <c r="B60" t="n">
-        <v>149445</v>
+        <v>180929</v>
       </c>
       <c r="C60" t="s">
         <v>578</v>
@@ -14141,7 +14141,7 @@
         <v>32340</v>
       </c>
       <c r="B61" t="n">
-        <v>149446</v>
+        <v>180930</v>
       </c>
       <c r="C61" t="s">
         <v>584</v>
@@ -14206,7 +14206,7 @@
         <v>32340</v>
       </c>
       <c r="B62" t="n">
-        <v>149447</v>
+        <v>180931</v>
       </c>
       <c r="C62" t="s">
         <v>591</v>
@@ -14401,7 +14401,7 @@
         <v>32340</v>
       </c>
       <c r="B65" t="n">
-        <v>149448</v>
+        <v>180932</v>
       </c>
       <c r="C65" t="s">
         <v>618</v>
@@ -14466,7 +14466,7 @@
         <v>32340</v>
       </c>
       <c r="B66" t="n">
-        <v>149449</v>
+        <v>180933</v>
       </c>
       <c r="C66" t="s">
         <v>628</v>
@@ -14531,7 +14531,7 @@
         <v>32340</v>
       </c>
       <c r="B67" t="n">
-        <v>149450</v>
+        <v>180934</v>
       </c>
       <c r="C67" t="s">
         <v>634</v>
@@ -14596,7 +14596,7 @@
         <v>32340</v>
       </c>
       <c r="B68" t="n">
-        <v>149451</v>
+        <v>180935</v>
       </c>
       <c r="C68" t="s">
         <v>640</v>
@@ -14661,7 +14661,7 @@
         <v>32340</v>
       </c>
       <c r="B69" t="n">
-        <v>149452</v>
+        <v>180936</v>
       </c>
       <c r="C69" t="s">
         <v>649</v>
@@ -14726,7 +14726,7 @@
         <v>32340</v>
       </c>
       <c r="B70" t="n">
-        <v>149453</v>
+        <v>180937</v>
       </c>
       <c r="C70" t="s">
         <v>658</v>
@@ -14856,7 +14856,7 @@
         <v>32340</v>
       </c>
       <c r="B72" t="n">
-        <v>149454</v>
+        <v>180938</v>
       </c>
       <c r="C72" t="s">
         <v>676</v>
@@ -14921,7 +14921,7 @@
         <v>32340</v>
       </c>
       <c r="B73" t="n">
-        <v>149455</v>
+        <v>180939</v>
       </c>
       <c r="C73" t="s">
         <v>685</v>
@@ -14986,7 +14986,7 @@
         <v>32340</v>
       </c>
       <c r="B74" t="n">
-        <v>149456</v>
+        <v>180940</v>
       </c>
       <c r="C74" t="s">
         <v>692</v>
@@ -15051,7 +15051,7 @@
         <v>32340</v>
       </c>
       <c r="B75" t="n">
-        <v>149457</v>
+        <v>180941</v>
       </c>
       <c r="C75" t="s">
         <v>701</v>
@@ -15120,7 +15120,7 @@
         <v>32340</v>
       </c>
       <c r="B76" t="n">
-        <v>149458</v>
+        <v>180942</v>
       </c>
       <c r="C76" t="s">
         <v>707</v>
@@ -15256,7 +15256,7 @@
         <v>32340</v>
       </c>
       <c r="B78" t="n">
-        <v>149459</v>
+        <v>180943</v>
       </c>
       <c r="C78" t="s">
         <v>722</v>
@@ -15392,7 +15392,7 @@
         <v>32340</v>
       </c>
       <c r="B80" t="n">
-        <v>149460</v>
+        <v>180944</v>
       </c>
       <c r="C80" t="s">
         <v>736</v>
@@ -15587,7 +15587,7 @@
         <v>32340</v>
       </c>
       <c r="B83" t="n">
-        <v>149461</v>
+        <v>180945</v>
       </c>
       <c r="C83" t="s">
         <v>763</v>
@@ -15721,7 +15721,7 @@
         <v>32340</v>
       </c>
       <c r="B85" t="n">
-        <v>149462</v>
+        <v>180946</v>
       </c>
       <c r="C85" t="s">
         <v>778</v>
@@ -15916,7 +15916,7 @@
         <v>32340</v>
       </c>
       <c r="B88" t="n">
-        <v>149463</v>
+        <v>180947</v>
       </c>
       <c r="C88" t="s">
         <v>799</v>
@@ -15981,7 +15981,7 @@
         <v>32340</v>
       </c>
       <c r="B89" t="n">
-        <v>149464</v>
+        <v>180948</v>
       </c>
       <c r="C89" t="s">
         <v>808</v>
@@ -16046,7 +16046,7 @@
         <v>32340</v>
       </c>
       <c r="B90" t="n">
-        <v>149465</v>
+        <v>180949</v>
       </c>
       <c r="C90" t="s">
         <v>817</v>
@@ -16111,7 +16111,7 @@
         <v>32340</v>
       </c>
       <c r="B91" t="n">
-        <v>149466</v>
+        <v>180950</v>
       </c>
       <c r="C91" t="s">
         <v>823</v>
@@ -16176,7 +16176,7 @@
         <v>32340</v>
       </c>
       <c r="B92" t="n">
-        <v>149467</v>
+        <v>180951</v>
       </c>
       <c r="C92" t="s">
         <v>832</v>
@@ -16241,7 +16241,7 @@
         <v>32340</v>
       </c>
       <c r="B93" t="n">
-        <v>149468</v>
+        <v>180952</v>
       </c>
       <c r="C93" t="s">
         <v>841</v>
@@ -16306,7 +16306,7 @@
         <v>32340</v>
       </c>
       <c r="B94" t="n">
-        <v>149469</v>
+        <v>180953</v>
       </c>
       <c r="C94" t="s">
         <v>848</v>
@@ -16371,7 +16371,7 @@
         <v>32340</v>
       </c>
       <c r="B95" t="n">
-        <v>149470</v>
+        <v>180954</v>
       </c>
       <c r="C95" t="s">
         <v>855</v>
@@ -16436,7 +16436,7 @@
         <v>32340</v>
       </c>
       <c r="B96" t="n">
-        <v>149471</v>
+        <v>180955</v>
       </c>
       <c r="C96" t="s">
         <v>864</v>
@@ -16572,7 +16572,7 @@
         <v>32340</v>
       </c>
       <c r="B98" t="n">
-        <v>149472</v>
+        <v>180956</v>
       </c>
       <c r="C98" t="s">
         <v>883</v>
@@ -16637,7 +16637,7 @@
         <v>32340</v>
       </c>
       <c r="B99" t="n">
-        <v>149473</v>
+        <v>180957</v>
       </c>
       <c r="C99" t="s">
         <v>892</v>
@@ -16767,7 +16767,7 @@
         <v>32340</v>
       </c>
       <c r="B101" t="n">
-        <v>149474</v>
+        <v>180958</v>
       </c>
       <c r="C101" t="s">
         <v>907</v>
@@ -16832,7 +16832,7 @@
         <v>32340</v>
       </c>
       <c r="B102" t="n">
-        <v>149475</v>
+        <v>180959</v>
       </c>
       <c r="C102" t="s">
         <v>916</v>
@@ -16897,7 +16897,7 @@
         <v>32340</v>
       </c>
       <c r="B103" t="n">
-        <v>149476</v>
+        <v>180960</v>
       </c>
       <c r="C103" t="s">
         <v>923</v>
@@ -16962,7 +16962,7 @@
         <v>32340</v>
       </c>
       <c r="B104" t="n">
-        <v>149477</v>
+        <v>180961</v>
       </c>
       <c r="C104" t="s">
         <v>932</v>
@@ -17092,7 +17092,7 @@
         <v>32340</v>
       </c>
       <c r="B106" t="n">
-        <v>149478</v>
+        <v>180962</v>
       </c>
       <c r="C106" t="s">
         <v>947</v>
@@ -17423,7 +17423,7 @@
         <v>32340</v>
       </c>
       <c r="B111" t="n">
-        <v>149479</v>
+        <v>180963</v>
       </c>
       <c r="C111" t="s">
         <v>987</v>
@@ -17492,7 +17492,7 @@
         <v>32340</v>
       </c>
       <c r="B112" t="n">
-        <v>149480</v>
+        <v>180964</v>
       </c>
       <c r="C112" t="s">
         <v>996</v>
@@ -17561,7 +17561,7 @@
         <v>32340</v>
       </c>
       <c r="B113" t="n">
-        <v>149481</v>
+        <v>180965</v>
       </c>
       <c r="C113" t="s">
         <v>1003</v>
@@ -17626,7 +17626,7 @@
         <v>32340</v>
       </c>
       <c r="B114" t="n">
-        <v>149482</v>
+        <v>180966</v>
       </c>
       <c r="C114" t="s">
         <v>1013</v>
@@ -17691,7 +17691,7 @@
         <v>32340</v>
       </c>
       <c r="B115" t="n">
-        <v>149483</v>
+        <v>180967</v>
       </c>
       <c r="C115" t="s">
         <v>1022</v>
@@ -17821,7 +17821,7 @@
         <v>32340</v>
       </c>
       <c r="B117" t="n">
-        <v>149484</v>
+        <v>180968</v>
       </c>
       <c r="C117" t="s">
         <v>1037</v>
@@ -17886,7 +17886,7 @@
         <v>32340</v>
       </c>
       <c r="B118" t="n">
-        <v>149485</v>
+        <v>180969</v>
       </c>
       <c r="C118" t="s">
         <v>1044</v>
@@ -17955,7 +17955,7 @@
         <v>32340</v>
       </c>
       <c r="B119" t="n">
-        <v>149486</v>
+        <v>180970</v>
       </c>
       <c r="C119" t="s">
         <v>1053</v>
@@ -18020,7 +18020,7 @@
         <v>32340</v>
       </c>
       <c r="B120" t="n">
-        <v>149487</v>
+        <v>180971</v>
       </c>
       <c r="C120" t="s">
         <v>1061</v>
@@ -18085,7 +18085,7 @@
         <v>32340</v>
       </c>
       <c r="B121" t="n">
-        <v>149488</v>
+        <v>180972</v>
       </c>
       <c r="C121" t="s">
         <v>1070</v>
@@ -18156,7 +18156,7 @@
         <v>32340</v>
       </c>
       <c r="B122" t="n">
-        <v>149489</v>
+        <v>180973</v>
       </c>
       <c r="C122" t="s">
         <v>1079</v>
@@ -18221,7 +18221,7 @@
         <v>32340</v>
       </c>
       <c r="B123" t="n">
-        <v>149490</v>
+        <v>180974</v>
       </c>
       <c r="C123" t="s">
         <v>1088</v>
@@ -18412,7 +18412,7 @@
         <v>32340</v>
       </c>
       <c r="B126" t="n">
-        <v>149491</v>
+        <v>180975</v>
       </c>
       <c r="C126" t="s">
         <v>1111</v>
@@ -18477,7 +18477,7 @@
         <v>32340</v>
       </c>
       <c r="B127" t="n">
-        <v>149492</v>
+        <v>180976</v>
       </c>
       <c r="C127" t="s">
         <v>1118</v>
@@ -18542,7 +18542,7 @@
         <v>32340</v>
       </c>
       <c r="B128" t="n">
-        <v>149493</v>
+        <v>180977</v>
       </c>
       <c r="C128" t="s">
         <v>1126</v>
@@ -18607,7 +18607,7 @@
         <v>32340</v>
       </c>
       <c r="B129" t="n">
-        <v>149494</v>
+        <v>180978</v>
       </c>
       <c r="C129" t="s">
         <v>1135</v>
@@ -18672,7 +18672,7 @@
         <v>32340</v>
       </c>
       <c r="B130" t="n">
-        <v>149495</v>
+        <v>180979</v>
       </c>
       <c r="C130" t="s">
         <v>1144</v>
@@ -18802,7 +18802,7 @@
         <v>32340</v>
       </c>
       <c r="B132" t="n">
-        <v>149496</v>
+        <v>180980</v>
       </c>
       <c r="C132" t="s">
         <v>1162</v>
@@ -18867,7 +18867,7 @@
         <v>32340</v>
       </c>
       <c r="B133" t="n">
-        <v>149497</v>
+        <v>180981</v>
       </c>
       <c r="C133" t="s">
         <v>1169</v>
@@ -18938,7 +18938,7 @@
         <v>32340</v>
       </c>
       <c r="B134" t="n">
-        <v>149498</v>
+        <v>180982</v>
       </c>
       <c r="C134" t="s">
         <v>1178</v>
@@ -19003,7 +19003,7 @@
         <v>32340</v>
       </c>
       <c r="B135" t="n">
-        <v>149499</v>
+        <v>180983</v>
       </c>
       <c r="C135" t="s">
         <v>1187</v>
@@ -19074,7 +19074,7 @@
         <v>32340</v>
       </c>
       <c r="B136" t="n">
-        <v>149500</v>
+        <v>180984</v>
       </c>
       <c r="C136" t="s">
         <v>1194</v>
@@ -19143,7 +19143,7 @@
         <v>32340</v>
       </c>
       <c r="B137" t="n">
-        <v>149501</v>
+        <v>180985</v>
       </c>
       <c r="C137" t="s">
         <v>1203</v>
@@ -19208,7 +19208,7 @@
         <v>32340</v>
       </c>
       <c r="B138" t="n">
-        <v>149502</v>
+        <v>180986</v>
       </c>
       <c r="C138" t="s">
         <v>1213</v>
@@ -19279,7 +19279,7 @@
         <v>32340</v>
       </c>
       <c r="B139" t="n">
-        <v>149503</v>
+        <v>180987</v>
       </c>
       <c r="C139" t="s">
         <v>1222</v>
@@ -19344,7 +19344,7 @@
         <v>32340</v>
       </c>
       <c r="B140" t="n">
-        <v>149504</v>
+        <v>180988</v>
       </c>
       <c r="C140" t="s">
         <v>1229</v>
@@ -19415,7 +19415,7 @@
         <v>32340</v>
       </c>
       <c r="B141" t="n">
-        <v>149505</v>
+        <v>180989</v>
       </c>
       <c r="C141" t="s">
         <v>1238</v>
@@ -19476,7 +19476,7 @@
         <v>32340</v>
       </c>
       <c r="B142" t="n">
-        <v>149506</v>
+        <v>180990</v>
       </c>
       <c r="C142" t="s">
         <v>1245</v>
@@ -19541,7 +19541,7 @@
         <v>32340</v>
       </c>
       <c r="B143" t="n">
-        <v>149507</v>
+        <v>180991</v>
       </c>
       <c r="C143" t="s">
         <v>1254</v>
@@ -19675,7 +19675,7 @@
         <v>32340</v>
       </c>
       <c r="B145" t="n">
-        <v>149508</v>
+        <v>180992</v>
       </c>
       <c r="C145" t="s">
         <v>1273</v>
@@ -19744,7 +19744,7 @@
         <v>32340</v>
       </c>
       <c r="B146" t="n">
-        <v>149509</v>
+        <v>180993</v>
       </c>
       <c r="C146" t="s">
         <v>1283</v>
@@ -19809,7 +19809,7 @@
         <v>32340</v>
       </c>
       <c r="B147" t="n">
-        <v>149510</v>
+        <v>180994</v>
       </c>
       <c r="C147" t="s">
         <v>1291</v>
@@ -19878,7 +19878,7 @@
         <v>32340</v>
       </c>
       <c r="B148" t="n">
-        <v>149511</v>
+        <v>180995</v>
       </c>
       <c r="C148" t="s">
         <v>1298</v>
@@ -19943,7 +19943,7 @@
         <v>32340</v>
       </c>
       <c r="B149" t="n">
-        <v>149512</v>
+        <v>180996</v>
       </c>
       <c r="C149" t="s">
         <v>1307</v>
@@ -20014,7 +20014,7 @@
         <v>32340</v>
       </c>
       <c r="B150" t="n">
-        <v>149513</v>
+        <v>180997</v>
       </c>
       <c r="C150" t="s">
         <v>1316</v>
@@ -20156,7 +20156,7 @@
         <v>32340</v>
       </c>
       <c r="B152" t="n">
-        <v>149514</v>
+        <v>180998</v>
       </c>
       <c r="C152" t="s">
         <v>1335</v>
@@ -20221,7 +20221,7 @@
         <v>32340</v>
       </c>
       <c r="B153" t="n">
-        <v>149515</v>
+        <v>180999</v>
       </c>
       <c r="C153" t="s">
         <v>1344</v>
@@ -20292,7 +20292,7 @@
         <v>32340</v>
       </c>
       <c r="B154" t="n">
-        <v>149516</v>
+        <v>181000</v>
       </c>
       <c r="C154" t="s">
         <v>1351</v>
@@ -20432,7 +20432,7 @@
         <v>32340</v>
       </c>
       <c r="B156" t="n">
-        <v>149517</v>
+        <v>181001</v>
       </c>
       <c r="C156" t="s">
         <v>1366</v>
@@ -20497,7 +20497,7 @@
         <v>32340</v>
       </c>
       <c r="B157" t="n">
-        <v>149518</v>
+        <v>181002</v>
       </c>
       <c r="C157" t="s">
         <v>1374</v>
@@ -20568,7 +20568,7 @@
         <v>32340</v>
       </c>
       <c r="B158" t="n">
-        <v>149519</v>
+        <v>181003</v>
       </c>
       <c r="C158" t="s">
         <v>1384</v>
@@ -20710,7 +20710,7 @@
         <v>32340</v>
       </c>
       <c r="B160" t="n">
-        <v>149520</v>
+        <v>181004</v>
       </c>
       <c r="C160" t="s">
         <v>1397</v>
@@ -20785,7 +20785,7 @@
         <v>32340</v>
       </c>
       <c r="B161" t="n">
-        <v>149521</v>
+        <v>181005</v>
       </c>
       <c r="C161" t="s">
         <v>1406</v>
@@ -20856,7 +20856,7 @@
         <v>32340</v>
       </c>
       <c r="B162" t="n">
-        <v>149522</v>
+        <v>181006</v>
       </c>
       <c r="C162" t="s">
         <v>1412</v>
@@ -20923,7 +20923,7 @@
         <v>32340</v>
       </c>
       <c r="B163" t="n">
-        <v>149523</v>
+        <v>181007</v>
       </c>
       <c r="C163" t="s">
         <v>1421</v>
@@ -20994,7 +20994,7 @@
         <v>32340</v>
       </c>
       <c r="B164" t="n">
-        <v>149524</v>
+        <v>181008</v>
       </c>
       <c r="C164" t="s">
         <v>1428</v>
@@ -21065,7 +21065,7 @@
         <v>32340</v>
       </c>
       <c r="B165" t="n">
-        <v>149525</v>
+        <v>181009</v>
       </c>
       <c r="C165" t="s">
         <v>1434</v>
@@ -21136,7 +21136,7 @@
         <v>32340</v>
       </c>
       <c r="B166" t="n">
-        <v>149526</v>
+        <v>181010</v>
       </c>
       <c r="C166" t="s">
         <v>1440</v>
@@ -21211,7 +21211,7 @@
         <v>32340</v>
       </c>
       <c r="B167" t="n">
-        <v>149527</v>
+        <v>181011</v>
       </c>
       <c r="C167" t="s">
         <v>1449</v>
@@ -21286,7 +21286,7 @@
         <v>32340</v>
       </c>
       <c r="B168" t="n">
-        <v>149528</v>
+        <v>181012</v>
       </c>
       <c r="C168" t="s">
         <v>1458</v>
@@ -21361,7 +21361,7 @@
         <v>32340</v>
       </c>
       <c r="B169" t="n">
-        <v>149529</v>
+        <v>149452</v>
       </c>
       <c r="C169" t="s">
         <v>1464</v>
@@ -21432,7 +21432,7 @@
         <v>32340</v>
       </c>
       <c r="B170" t="n">
-        <v>149530</v>
+        <v>181013</v>
       </c>
       <c r="C170" t="s">
         <v>1470</v>
@@ -21493,7 +21493,7 @@
         <v>32340</v>
       </c>
       <c r="B171" t="n">
-        <v>149531</v>
+        <v>181014</v>
       </c>
       <c r="C171" t="s">
         <v>1477</v>
@@ -21564,7 +21564,7 @@
         <v>32340</v>
       </c>
       <c r="B172" t="n">
-        <v>149532</v>
+        <v>181015</v>
       </c>
       <c r="C172" t="s">
         <v>1483</v>
@@ -21625,7 +21625,7 @@
         <v>32340</v>
       </c>
       <c r="B173" t="n">
-        <v>149533</v>
+        <v>181016</v>
       </c>
       <c r="C173" t="s">
         <v>1489</v>
@@ -21828,7 +21828,7 @@
         <v>32340</v>
       </c>
       <c r="B176" t="n">
-        <v>149534</v>
+        <v>149444</v>
       </c>
       <c r="C176" t="s">
         <v>1509</v>
@@ -21903,7 +21903,7 @@
         <v>32340</v>
       </c>
       <c r="B177" t="n">
-        <v>149535</v>
+        <v>181017</v>
       </c>
       <c r="C177" t="s">
         <v>1518</v>
@@ -21974,7 +21974,7 @@
         <v>32340</v>
       </c>
       <c r="B178" t="n">
-        <v>149536</v>
+        <v>181018</v>
       </c>
       <c r="C178" t="s">
         <v>1524</v>
@@ -22049,7 +22049,7 @@
         <v>32340</v>
       </c>
       <c r="B179" t="n">
-        <v>149537</v>
+        <v>181019</v>
       </c>
       <c r="C179" t="s">
         <v>1533</v>
@@ -22124,7 +22124,7 @@
         <v>32340</v>
       </c>
       <c r="B180" t="n">
-        <v>149538</v>
+        <v>181020</v>
       </c>
       <c r="C180" t="s">
         <v>1540</v>
@@ -22193,7 +22193,7 @@
         <v>32340</v>
       </c>
       <c r="B181" t="n">
-        <v>149539</v>
+        <v>181021</v>
       </c>
       <c r="C181" t="s">
         <v>1547</v>
@@ -22327,7 +22327,7 @@
         <v>32340</v>
       </c>
       <c r="B183" t="n">
-        <v>149540</v>
+        <v>181022</v>
       </c>
       <c r="C183" t="s">
         <v>1563</v>
@@ -22392,7 +22392,7 @@
         <v>32340</v>
       </c>
       <c r="B184" t="n">
-        <v>149541</v>
+        <v>181023</v>
       </c>
       <c r="C184" t="s">
         <v>1572</v>
@@ -22463,7 +22463,7 @@
         <v>32340</v>
       </c>
       <c r="B185" t="n">
-        <v>149542</v>
+        <v>181024</v>
       </c>
       <c r="C185" t="s">
         <v>1578</v>
@@ -22532,7 +22532,7 @@
         <v>32340</v>
       </c>
       <c r="B186" t="n">
-        <v>149543</v>
+        <v>181025</v>
       </c>
       <c r="C186" t="s">
         <v>1587</v>
@@ -22603,7 +22603,7 @@
         <v>32340</v>
       </c>
       <c r="B187" t="n">
-        <v>149544</v>
+        <v>181026</v>
       </c>
       <c r="C187" t="s">
         <v>1591</v>
@@ -22678,7 +22678,7 @@
         <v>32340</v>
       </c>
       <c r="B188" t="n">
-        <v>149545</v>
+        <v>181027</v>
       </c>
       <c r="C188" t="s">
         <v>1598</v>
@@ -22749,7 +22749,7 @@
         <v>32340</v>
       </c>
       <c r="B189" t="n">
-        <v>149546</v>
+        <v>181028</v>
       </c>
       <c r="C189" t="s">
         <v>1604</v>
@@ -22820,7 +22820,7 @@
         <v>32340</v>
       </c>
       <c r="B190" t="n">
-        <v>149547</v>
+        <v>181029</v>
       </c>
       <c r="C190" t="s">
         <v>1610</v>
@@ -22895,7 +22895,7 @@
         <v>32340</v>
       </c>
       <c r="B191" t="n">
-        <v>149548</v>
+        <v>181030</v>
       </c>
       <c r="C191" t="s">
         <v>1617</v>
@@ -23039,7 +23039,7 @@
         <v>32340</v>
       </c>
       <c r="B193" t="n">
-        <v>149549</v>
+        <v>181031</v>
       </c>
       <c r="C193" t="s">
         <v>1630</v>
@@ -23114,7 +23114,7 @@
         <v>32340</v>
       </c>
       <c r="B194" t="n">
-        <v>149550</v>
+        <v>181032</v>
       </c>
       <c r="C194" t="s">
         <v>1639</v>
@@ -23189,7 +23189,7 @@
         <v>32340</v>
       </c>
       <c r="B195" t="n">
-        <v>149551</v>
+        <v>181033</v>
       </c>
       <c r="C195" t="s">
         <v>1646</v>
@@ -23260,7 +23260,7 @@
         <v>32340</v>
       </c>
       <c r="B196" t="n">
-        <v>149552</v>
+        <v>181034</v>
       </c>
       <c r="C196" t="s">
         <v>1653</v>
@@ -23335,7 +23335,7 @@
         <v>32340</v>
       </c>
       <c r="B197" t="n">
-        <v>149553</v>
+        <v>181035</v>
       </c>
       <c r="C197" t="s">
         <v>1662</v>
@@ -23410,7 +23410,7 @@
         <v>32340</v>
       </c>
       <c r="B198" t="n">
-        <v>149554</v>
+        <v>181036</v>
       </c>
       <c r="C198" t="s">
         <v>1669</v>
@@ -23548,7 +23548,7 @@
         <v>32340</v>
       </c>
       <c r="B200" t="n">
-        <v>149555</v>
+        <v>181037</v>
       </c>
       <c r="C200" t="s">
         <v>1684</v>
@@ -23619,7 +23619,7 @@
         <v>32340</v>
       </c>
       <c r="B201" t="n">
-        <v>149556</v>
+        <v>181038</v>
       </c>
       <c r="C201" t="s">
         <v>1691</v>
@@ -23694,7 +23694,7 @@
         <v>32340</v>
       </c>
       <c r="B202" t="n">
-        <v>149557</v>
+        <v>181039</v>
       </c>
       <c r="C202" t="s">
         <v>1697</v>
@@ -23769,7 +23769,7 @@
         <v>32340</v>
       </c>
       <c r="B203" t="n">
-        <v>149558</v>
+        <v>181040</v>
       </c>
       <c r="C203" t="s">
         <v>1704</v>
@@ -23844,7 +23844,7 @@
         <v>32340</v>
       </c>
       <c r="B204" t="n">
-        <v>149559</v>
+        <v>181041</v>
       </c>
       <c r="C204" t="s">
         <v>1713</v>
@@ -23986,7 +23986,7 @@
         <v>32340</v>
       </c>
       <c r="B206" t="n">
-        <v>149560</v>
+        <v>181042</v>
       </c>
       <c r="C206" t="s">
         <v>1726</v>
@@ -24118,7 +24118,7 @@
         <v>32340</v>
       </c>
       <c r="B208" t="n">
-        <v>149533</v>
+        <v>149444</v>
       </c>
       <c r="C208" t="s">
         <v>1509</v>
@@ -24396,7 +24396,7 @@
         <v>32340</v>
       </c>
       <c r="B212" t="n">
-        <v>149561</v>
+        <v>181043</v>
       </c>
       <c r="C212" t="s">
         <v>1771</v>
@@ -24461,7 +24461,7 @@
         <v>32340</v>
       </c>
       <c r="B213" t="n">
-        <v>149562</v>
+        <v>181044</v>
       </c>
       <c r="C213" t="s">
         <v>1780</v>
@@ -24599,7 +24599,7 @@
         <v>32340</v>
       </c>
       <c r="B215" t="n">
-        <v>149563</v>
+        <v>181045</v>
       </c>
       <c r="C215" t="s">
         <v>1794</v>
@@ -24670,7 +24670,7 @@
         <v>32340</v>
       </c>
       <c r="B216" t="n">
-        <v>149564</v>
+        <v>181046</v>
       </c>
       <c r="C216" t="s">
         <v>1802</v>
@@ -24739,7 +24739,7 @@
         <v>32340</v>
       </c>
       <c r="B217" t="n">
-        <v>149565</v>
+        <v>181047</v>
       </c>
       <c r="C217" t="s">
         <v>1812</v>
@@ -24810,7 +24810,7 @@
         <v>32340</v>
       </c>
       <c r="B218" t="n">
-        <v>149441</v>
+        <v>149449</v>
       </c>
       <c r="C218" t="s">
         <v>534</v>
@@ -25021,7 +25021,7 @@
         <v>32340</v>
       </c>
       <c r="B221" t="n">
-        <v>149566</v>
+        <v>181048</v>
       </c>
       <c r="C221" t="s">
         <v>1844</v>
@@ -25092,7 +25092,7 @@
         <v>32340</v>
       </c>
       <c r="B222" t="n">
-        <v>149567</v>
+        <v>181049</v>
       </c>
       <c r="C222" t="s">
         <v>1851</v>
@@ -25157,7 +25157,7 @@
         <v>32340</v>
       </c>
       <c r="B223" t="n">
-        <v>149568</v>
+        <v>181050</v>
       </c>
       <c r="C223" t="s">
         <v>1861</v>
@@ -25218,7 +25218,7 @@
         <v>32340</v>
       </c>
       <c r="B224" t="n">
-        <v>149569</v>
+        <v>181051</v>
       </c>
       <c r="C224" t="s">
         <v>1870</v>
@@ -25289,7 +25289,7 @@
         <v>32340</v>
       </c>
       <c r="B225" t="n">
-        <v>149570</v>
+        <v>181052</v>
       </c>
       <c r="C225" t="s">
         <v>1879</v>
@@ -25360,7 +25360,7 @@
         <v>32340</v>
       </c>
       <c r="B226" t="n">
-        <v>149571</v>
+        <v>181053</v>
       </c>
       <c r="C226" t="s">
         <v>1886</v>
@@ -25425,7 +25425,7 @@
         <v>32340</v>
       </c>
       <c r="B227" t="n">
-        <v>149572</v>
+        <v>181054</v>
       </c>
       <c r="C227" t="s">
         <v>1892</v>
@@ -25500,7 +25500,7 @@
         <v>32340</v>
       </c>
       <c r="B228" t="n">
-        <v>149573</v>
+        <v>181055</v>
       </c>
       <c r="C228" t="s">
         <v>1902</v>
@@ -25569,7 +25569,7 @@
         <v>32340</v>
       </c>
       <c r="B229" t="n">
-        <v>149574</v>
+        <v>181056</v>
       </c>
       <c r="C229" t="s">
         <v>1911</v>
@@ -25640,7 +25640,7 @@
         <v>32340</v>
       </c>
       <c r="B230" t="n">
-        <v>149575</v>
+        <v>181057</v>
       </c>
       <c r="C230" t="s">
         <v>1919</v>
@@ -25711,7 +25711,7 @@
         <v>32340</v>
       </c>
       <c r="B231" t="n">
-        <v>149576</v>
+        <v>181058</v>
       </c>
       <c r="C231" t="s">
         <v>1927</v>
@@ -25782,7 +25782,7 @@
         <v>32340</v>
       </c>
       <c r="B232" t="n">
-        <v>149528</v>
+        <v>149452</v>
       </c>
       <c r="C232" t="s">
         <v>1464</v>
@@ -25918,7 +25918,7 @@
         <v>32340</v>
       </c>
       <c r="B234" t="n">
-        <v>149577</v>
+        <v>181059</v>
       </c>
       <c r="C234" t="s">
         <v>1949</v>
@@ -25983,7 +25983,7 @@
         <v>32340</v>
       </c>
       <c r="B235" t="n">
-        <v>149578</v>
+        <v>181060</v>
       </c>
       <c r="C235" t="s">
         <v>1956</v>
@@ -26123,7 +26123,7 @@
         <v>32340</v>
       </c>
       <c r="B237" t="n">
-        <v>149579</v>
+        <v>181061</v>
       </c>
       <c r="C237" t="s">
         <v>1973</v>
@@ -26194,7 +26194,7 @@
         <v>32340</v>
       </c>
       <c r="B238" t="n">
-        <v>149580</v>
+        <v>181062</v>
       </c>
       <c r="C238" t="s">
         <v>1979</v>
@@ -26332,7 +26332,7 @@
         <v>32340</v>
       </c>
       <c r="B240" t="n">
-        <v>149581</v>
+        <v>181063</v>
       </c>
       <c r="C240" t="s">
         <v>1990</v>
@@ -26399,7 +26399,7 @@
         <v>32340</v>
       </c>
       <c r="B241" t="n">
-        <v>149582</v>
+        <v>181064</v>
       </c>
       <c r="C241" t="s">
         <v>1996</v>
@@ -26466,7 +26466,7 @@
         <v>32340</v>
       </c>
       <c r="B242" t="n">
-        <v>149583</v>
+        <v>181065</v>
       </c>
       <c r="C242" t="s">
         <v>2002</v>
@@ -26537,7 +26537,7 @@
         <v>32340</v>
       </c>
       <c r="B243" t="n">
-        <v>149584</v>
+        <v>181066</v>
       </c>
       <c r="C243" t="s">
         <v>2011</v>
@@ -26608,7 +26608,7 @@
         <v>32340</v>
       </c>
       <c r="B244" t="n">
-        <v>149585</v>
+        <v>181067</v>
       </c>
       <c r="C244" t="s">
         <v>2018</v>
@@ -26679,7 +26679,7 @@
         <v>32340</v>
       </c>
       <c r="B245" t="n">
-        <v>149586</v>
+        <v>181068</v>
       </c>
       <c r="C245" t="s">
         <v>2026</v>
@@ -26744,7 +26744,7 @@
         <v>32340</v>
       </c>
       <c r="B246" t="n">
-        <v>149587</v>
+        <v>181069</v>
       </c>
       <c r="C246" t="s">
         <v>2036</v>
@@ -27014,7 +27014,7 @@
         <v>32340</v>
       </c>
       <c r="B250" t="n">
-        <v>149588</v>
+        <v>181070</v>
       </c>
       <c r="C250" t="s">
         <v>2069</v>
@@ -27085,7 +27085,7 @@
         <v>32340</v>
       </c>
       <c r="B251" t="n">
-        <v>149589</v>
+        <v>181071</v>
       </c>
       <c r="C251" t="s">
         <v>2078</v>
@@ -27231,7 +27231,7 @@
         <v>32340</v>
       </c>
       <c r="B253" t="n">
-        <v>149590</v>
+        <v>181072</v>
       </c>
       <c r="C253" t="s">
         <v>2093</v>
@@ -27302,7 +27302,7 @@
         <v>32340</v>
       </c>
       <c r="B254" t="n">
-        <v>149591</v>
+        <v>181073</v>
       </c>
       <c r="C254" t="s">
         <v>2100</v>
@@ -27373,7 +27373,7 @@
         <v>32340</v>
       </c>
       <c r="B255" t="n">
-        <v>149592</v>
+        <v>181074</v>
       </c>
       <c r="C255" t="s">
         <v>2107</v>
@@ -27444,7 +27444,7 @@
         <v>32340</v>
       </c>
       <c r="B256" t="n">
-        <v>149593</v>
+        <v>181075</v>
       </c>
       <c r="C256" t="s">
         <v>2114</v>
@@ -27515,7 +27515,7 @@
         <v>32340</v>
       </c>
       <c r="B257" t="n">
-        <v>149594</v>
+        <v>181076</v>
       </c>
       <c r="C257" t="s">
         <v>2122</v>
@@ -27586,7 +27586,7 @@
         <v>32340</v>
       </c>
       <c r="B258" t="n">
-        <v>149595</v>
+        <v>181077</v>
       </c>
       <c r="C258" t="s">
         <v>2130</v>
@@ -27657,7 +27657,7 @@
         <v>32340</v>
       </c>
       <c r="B259" t="n">
-        <v>149596</v>
+        <v>181078</v>
       </c>
       <c r="C259" t="s">
         <v>2138</v>
@@ -27795,7 +27795,7 @@
         <v>32340</v>
       </c>
       <c r="B261" t="n">
-        <v>149597</v>
+        <v>181079</v>
       </c>
       <c r="C261" t="s">
         <v>2153</v>
@@ -27856,7 +27856,7 @@
         <v>32340</v>
       </c>
       <c r="B262" t="n">
-        <v>149598</v>
+        <v>181080</v>
       </c>
       <c r="C262" t="s">
         <v>2159</v>
@@ -27917,7 +27917,7 @@
         <v>32340</v>
       </c>
       <c r="B263" t="n">
-        <v>149599</v>
+        <v>181081</v>
       </c>
       <c r="C263" t="s">
         <v>2166</v>
@@ -28059,7 +28059,7 @@
         <v>32340</v>
       </c>
       <c r="B265" t="n">
-        <v>149600</v>
+        <v>181082</v>
       </c>
       <c r="C265" t="s">
         <v>2181</v>
@@ -28205,7 +28205,7 @@
         <v>32340</v>
       </c>
       <c r="B267" t="n">
-        <v>149601</v>
+        <v>181083</v>
       </c>
       <c r="C267" t="s">
         <v>2197</v>
@@ -28276,7 +28276,7 @@
         <v>32340</v>
       </c>
       <c r="B268" t="n">
-        <v>149602</v>
+        <v>181084</v>
       </c>
       <c r="C268" t="s">
         <v>2203</v>
@@ -28426,7 +28426,7 @@
         <v>32340</v>
       </c>
       <c r="B270" t="n">
-        <v>149603</v>
+        <v>149467</v>
       </c>
       <c r="C270" t="s">
         <v>2216</v>
@@ -28568,7 +28568,7 @@
         <v>32340</v>
       </c>
       <c r="B272" t="n">
-        <v>149604</v>
+        <v>181085</v>
       </c>
       <c r="C272" t="s">
         <v>2229</v>
@@ -28639,7 +28639,7 @@
         <v>32340</v>
       </c>
       <c r="B273" t="n">
-        <v>149605</v>
+        <v>181086</v>
       </c>
       <c r="C273" t="s">
         <v>2237</v>
@@ -28789,7 +28789,7 @@
         <v>32340</v>
       </c>
       <c r="B275" t="n">
-        <v>149606</v>
+        <v>181087</v>
       </c>
       <c r="C275" t="s">
         <v>2253</v>
@@ -28856,7 +28856,7 @@
         <v>32340</v>
       </c>
       <c r="B276" t="n">
-        <v>149607</v>
+        <v>181088</v>
       </c>
       <c r="C276" t="s">
         <v>2259</v>
@@ -28927,7 +28927,7 @@
         <v>32340</v>
       </c>
       <c r="B277" t="n">
-        <v>149608</v>
+        <v>181089</v>
       </c>
       <c r="C277" t="s">
         <v>2267</v>
@@ -28998,7 +28998,7 @@
         <v>32340</v>
       </c>
       <c r="B278" t="n">
-        <v>149609</v>
+        <v>181090</v>
       </c>
       <c r="C278" t="s">
         <v>2273</v>
@@ -29059,7 +29059,7 @@
         <v>32340</v>
       </c>
       <c r="B279" t="n">
-        <v>149610</v>
+        <v>181091</v>
       </c>
       <c r="C279" t="s">
         <v>2279</v>
@@ -29120,7 +29120,7 @@
         <v>32340</v>
       </c>
       <c r="B280" t="n">
-        <v>149611</v>
+        <v>181092</v>
       </c>
       <c r="C280" t="s">
         <v>2285</v>
@@ -29191,7 +29191,7 @@
         <v>32340</v>
       </c>
       <c r="B281" t="n">
-        <v>149612</v>
+        <v>181093</v>
       </c>
       <c r="C281" t="s">
         <v>2292</v>
@@ -29266,7 +29266,7 @@
         <v>32340</v>
       </c>
       <c r="B282" t="n">
-        <v>149613</v>
+        <v>181094</v>
       </c>
       <c r="C282" t="s">
         <v>2302</v>
@@ -29337,7 +29337,7 @@
         <v>32340</v>
       </c>
       <c r="B283" t="n">
-        <v>149614</v>
+        <v>181095</v>
       </c>
       <c r="C283" t="s">
         <v>2309</v>
@@ -29412,7 +29412,7 @@
         <v>32340</v>
       </c>
       <c r="B284" t="n">
-        <v>149615</v>
+        <v>181096</v>
       </c>
       <c r="C284" t="s">
         <v>2316</v>
@@ -29487,7 +29487,7 @@
         <v>32340</v>
       </c>
       <c r="B285" t="n">
-        <v>149616</v>
+        <v>181097</v>
       </c>
       <c r="C285" t="s">
         <v>2326</v>
@@ -29633,7 +29633,7 @@
         <v>32340</v>
       </c>
       <c r="B287" t="n">
-        <v>149617</v>
+        <v>181098</v>
       </c>
       <c r="C287" t="s">
         <v>2340</v>
@@ -29708,7 +29708,7 @@
         <v>32340</v>
       </c>
       <c r="B288" t="n">
-        <v>149618</v>
+        <v>181099</v>
       </c>
       <c r="C288" t="s">
         <v>2347</v>
@@ -29783,7 +29783,7 @@
         <v>32340</v>
       </c>
       <c r="B289" t="n">
-        <v>149619</v>
+        <v>149473</v>
       </c>
       <c r="C289" t="s">
         <v>2357</v>
@@ -29858,7 +29858,7 @@
         <v>32340</v>
       </c>
       <c r="B290" t="n">
-        <v>149620</v>
+        <v>181100</v>
       </c>
       <c r="C290" t="s">
         <v>2366</v>
@@ -29933,7 +29933,7 @@
         <v>32340</v>
       </c>
       <c r="B291" t="n">
-        <v>149621</v>
+        <v>181101</v>
       </c>
       <c r="C291" t="s">
         <v>2373</v>
@@ -30004,7 +30004,7 @@
         <v>32340</v>
       </c>
       <c r="B292" t="n">
-        <v>149622</v>
+        <v>181102</v>
       </c>
       <c r="C292" t="s">
         <v>2378</v>
@@ -30075,7 +30075,7 @@
         <v>32340</v>
       </c>
       <c r="B293" t="n">
-        <v>149623</v>
+        <v>181103</v>
       </c>
       <c r="C293" t="s">
         <v>2385</v>
@@ -30146,7 +30146,7 @@
         <v>32340</v>
       </c>
       <c r="B294" t="n">
-        <v>149624</v>
+        <v>181104</v>
       </c>
       <c r="C294" t="s">
         <v>2391</v>
@@ -30207,7 +30207,7 @@
         <v>32340</v>
       </c>
       <c r="B295" t="n">
-        <v>149602</v>
+        <v>149467</v>
       </c>
       <c r="C295" t="s">
         <v>2216</v>
@@ -30278,7 +30278,7 @@
         <v>32340</v>
       </c>
       <c r="B296" t="n">
-        <v>149625</v>
+        <v>181105</v>
       </c>
       <c r="C296" t="s">
         <v>2402</v>
@@ -30420,7 +30420,7 @@
         <v>32340</v>
       </c>
       <c r="B298" t="n">
-        <v>149626</v>
+        <v>181106</v>
       </c>
       <c r="C298" t="s">
         <v>2415</v>
@@ -30491,7 +30491,7 @@
         <v>32340</v>
       </c>
       <c r="B299" t="n">
-        <v>149627</v>
+        <v>181107</v>
       </c>
       <c r="C299" t="s">
         <v>2422</v>
@@ -30562,7 +30562,7 @@
         <v>32340</v>
       </c>
       <c r="B300" t="n">
-        <v>149628</v>
+        <v>181108</v>
       </c>
       <c r="C300" t="s">
         <v>2430</v>
@@ -30633,7 +30633,7 @@
         <v>32340</v>
       </c>
       <c r="B301" t="n">
-        <v>149629</v>
+        <v>181109</v>
       </c>
       <c r="C301" t="s">
         <v>2436</v>
@@ -30708,7 +30708,7 @@
         <v>32340</v>
       </c>
       <c r="B302" t="n">
-        <v>149630</v>
+        <v>181110</v>
       </c>
       <c r="C302" t="s">
         <v>2445</v>
@@ -30783,7 +30783,7 @@
         <v>32340</v>
       </c>
       <c r="B303" t="n">
-        <v>149631</v>
+        <v>181111</v>
       </c>
       <c r="C303" t="s">
         <v>2453</v>
@@ -30854,7 +30854,7 @@
         <v>32340</v>
       </c>
       <c r="B304" t="n">
-        <v>149632</v>
+        <v>181112</v>
       </c>
       <c r="C304" t="s">
         <v>2460</v>
@@ -31071,7 +31071,7 @@
         <v>32340</v>
       </c>
       <c r="B307" t="n">
-        <v>149633</v>
+        <v>181113</v>
       </c>
       <c r="C307" t="s">
         <v>2482</v>
@@ -31142,7 +31142,7 @@
         <v>32340</v>
       </c>
       <c r="B308" t="n">
-        <v>149634</v>
+        <v>181114</v>
       </c>
       <c r="C308" t="s">
         <v>2489</v>
@@ -31213,7 +31213,7 @@
         <v>32340</v>
       </c>
       <c r="B309" t="n">
-        <v>149635</v>
+        <v>181115</v>
       </c>
       <c r="C309" t="s">
         <v>2496</v>
@@ -31280,7 +31280,7 @@
         <v>32340</v>
       </c>
       <c r="B310" t="n">
-        <v>149636</v>
+        <v>181116</v>
       </c>
       <c r="C310" t="s">
         <v>2503</v>
@@ -31351,7 +31351,7 @@
         <v>32340</v>
       </c>
       <c r="B311" t="n">
-        <v>149637</v>
+        <v>181117</v>
       </c>
       <c r="C311" t="s">
         <v>2509</v>
@@ -31422,7 +31422,7 @@
         <v>32340</v>
       </c>
       <c r="B312" t="n">
-        <v>149638</v>
+        <v>181118</v>
       </c>
       <c r="C312" t="s">
         <v>2515</v>
@@ -31564,7 +31564,7 @@
         <v>32340</v>
       </c>
       <c r="B314" t="n">
-        <v>149639</v>
+        <v>181119</v>
       </c>
       <c r="C314" t="s">
         <v>2528</v>
@@ -31637,7 +31637,7 @@
         <v>32340</v>
       </c>
       <c r="B315" t="n">
-        <v>149640</v>
+        <v>181120</v>
       </c>
       <c r="C315" t="s">
         <v>2538</v>
@@ -31708,7 +31708,7 @@
         <v>32340</v>
       </c>
       <c r="B316" t="n">
-        <v>149641</v>
+        <v>181121</v>
       </c>
       <c r="C316" t="s">
         <v>2546</v>
@@ -31779,7 +31779,7 @@
         <v>32340</v>
       </c>
       <c r="B317" t="n">
-        <v>149642</v>
+        <v>181122</v>
       </c>
       <c r="C317" t="s">
         <v>2553</v>
@@ -31915,7 +31915,7 @@
         <v>32340</v>
       </c>
       <c r="B319" t="n">
-        <v>149643</v>
+        <v>181123</v>
       </c>
       <c r="C319" t="s">
         <v>2566</v>
@@ -31986,7 +31986,7 @@
         <v>32340</v>
       </c>
       <c r="B320" t="n">
-        <v>149644</v>
+        <v>181124</v>
       </c>
       <c r="C320" t="s">
         <v>2575</v>
@@ -32051,7 +32051,7 @@
         <v>32340</v>
       </c>
       <c r="B321" t="n">
-        <v>149645</v>
+        <v>181125</v>
       </c>
       <c r="C321" t="s">
         <v>2582</v>
@@ -32122,7 +32122,7 @@
         <v>32340</v>
       </c>
       <c r="B322" t="n">
-        <v>149618</v>
+        <v>149473</v>
       </c>
       <c r="C322" t="s">
         <v>2357</v>
@@ -32197,7 +32197,7 @@
         <v>32340</v>
       </c>
       <c r="B323" t="n">
-        <v>149646</v>
+        <v>181126</v>
       </c>
       <c r="C323" t="s">
         <v>2597</v>
@@ -32272,7 +32272,7 @@
         <v>32340</v>
       </c>
       <c r="B324" t="n">
-        <v>149647</v>
+        <v>181127</v>
       </c>
       <c r="C324" t="s">
         <v>2607</v>
@@ -32347,7 +32347,7 @@
         <v>32340</v>
       </c>
       <c r="B325" t="n">
-        <v>149648</v>
+        <v>181128</v>
       </c>
       <c r="C325" t="s">
         <v>2616</v>
@@ -32422,7 +32422,7 @@
         <v>32340</v>
       </c>
       <c r="B326" t="n">
-        <v>149649</v>
+        <v>181129</v>
       </c>
       <c r="C326" t="s">
         <v>2623</v>
@@ -32497,7 +32497,7 @@
         <v>32340</v>
       </c>
       <c r="B327" t="n">
-        <v>149650</v>
+        <v>181130</v>
       </c>
       <c r="C327" t="s">
         <v>2631</v>
@@ -32572,7 +32572,7 @@
         <v>32340</v>
       </c>
       <c r="B328" t="n">
-        <v>149651</v>
+        <v>181131</v>
       </c>
       <c r="C328" t="s">
         <v>2640</v>
@@ -32643,7 +32643,7 @@
         <v>32340</v>
       </c>
       <c r="B329" t="n">
-        <v>149652</v>
+        <v>181132</v>
       </c>
       <c r="C329" t="s">
         <v>2647</v>
@@ -32793,7 +32793,7 @@
         <v>32340</v>
       </c>
       <c r="B331" t="n">
-        <v>149653</v>
+        <v>181133</v>
       </c>
       <c r="C331" t="s">
         <v>2665</v>
@@ -32868,7 +32868,7 @@
         <v>32340</v>
       </c>
       <c r="B332" t="n">
-        <v>149654</v>
+        <v>181134</v>
       </c>
       <c r="C332" t="s">
         <v>2671</v>
@@ -32943,7 +32943,7 @@
         <v>32340</v>
       </c>
       <c r="B333" t="n">
-        <v>149655</v>
+        <v>181135</v>
       </c>
       <c r="C333" t="s">
         <v>2681</v>
@@ -33014,7 +33014,7 @@
         <v>32340</v>
       </c>
       <c r="B334" t="n">
-        <v>149656</v>
+        <v>181136</v>
       </c>
       <c r="C334" t="s">
         <v>2688</v>
@@ -33160,7 +33160,7 @@
         <v>32340</v>
       </c>
       <c r="B336" t="n">
-        <v>149657</v>
+        <v>181137</v>
       </c>
       <c r="C336" t="s">
         <v>2706</v>
@@ -33235,7 +33235,7 @@
         <v>32340</v>
       </c>
       <c r="B337" t="n">
-        <v>149658</v>
+        <v>181138</v>
       </c>
       <c r="C337" t="s">
         <v>2716</v>
@@ -33306,7 +33306,7 @@
         <v>32340</v>
       </c>
       <c r="B338" t="n">
-        <v>149659</v>
+        <v>181139</v>
       </c>
       <c r="C338" t="s">
         <v>2725</v>
@@ -33456,7 +33456,7 @@
         <v>32340</v>
       </c>
       <c r="B340" t="n">
-        <v>149660</v>
+        <v>181140</v>
       </c>
       <c r="C340" t="s">
         <v>2745</v>
@@ -33531,7 +33531,7 @@
         <v>32340</v>
       </c>
       <c r="B341" t="n">
-        <v>149661</v>
+        <v>181141</v>
       </c>
       <c r="C341" t="s">
         <v>2754</v>
@@ -33606,7 +33606,7 @@
         <v>32340</v>
       </c>
       <c r="B342" t="n">
-        <v>149662</v>
+        <v>181142</v>
       </c>
       <c r="C342" t="s">
         <v>2764</v>
@@ -33681,7 +33681,7 @@
         <v>32340</v>
       </c>
       <c r="B343" t="n">
-        <v>149663</v>
+        <v>181143</v>
       </c>
       <c r="C343" t="s">
         <v>2774</v>
@@ -33756,7 +33756,7 @@
         <v>32340</v>
       </c>
       <c r="B344" t="n">
-        <v>149664</v>
+        <v>181144</v>
       </c>
       <c r="C344" t="s">
         <v>2780</v>
@@ -33831,7 +33831,7 @@
         <v>32340</v>
       </c>
       <c r="B345" t="n">
-        <v>149665</v>
+        <v>181145</v>
       </c>
       <c r="C345" t="s">
         <v>2790</v>
@@ -33906,7 +33906,7 @@
         <v>32340</v>
       </c>
       <c r="B346" t="n">
-        <v>149666</v>
+        <v>181146</v>
       </c>
       <c r="C346" t="s">
         <v>2798</v>
@@ -33981,7 +33981,7 @@
         <v>32340</v>
       </c>
       <c r="B347" t="n">
-        <v>149667</v>
+        <v>181147</v>
       </c>
       <c r="C347" t="s">
         <v>2805</v>
@@ -34056,7 +34056,7 @@
         <v>32340</v>
       </c>
       <c r="B348" t="n">
-        <v>149668</v>
+        <v>181148</v>
       </c>
       <c r="C348" t="s">
         <v>2814</v>
@@ -34131,7 +34131,7 @@
         <v>32340</v>
       </c>
       <c r="B349" t="n">
-        <v>149669</v>
+        <v>181149</v>
       </c>
       <c r="C349" t="s">
         <v>2823</v>
@@ -34196,7 +34196,7 @@
         <v>32340</v>
       </c>
       <c r="B350" t="n">
-        <v>149670</v>
+        <v>181150</v>
       </c>
       <c r="C350" t="s">
         <v>2833</v>
@@ -34271,7 +34271,7 @@
         <v>32340</v>
       </c>
       <c r="B351" t="n">
-        <v>149671</v>
+        <v>181151</v>
       </c>
       <c r="C351" t="s">
         <v>2843</v>
@@ -34346,7 +34346,7 @@
         <v>32340</v>
       </c>
       <c r="B352" t="n">
-        <v>149672</v>
+        <v>181152</v>
       </c>
       <c r="C352" t="s">
         <v>2852</v>
@@ -34421,7 +34421,7 @@
         <v>32340</v>
       </c>
       <c r="B353" t="n">
-        <v>149673</v>
+        <v>181153</v>
       </c>
       <c r="C353" t="s">
         <v>2861</v>
@@ -34496,7 +34496,7 @@
         <v>32340</v>
       </c>
       <c r="B354" t="n">
-        <v>149674</v>
+        <v>181154</v>
       </c>
       <c r="C354" t="s">
         <v>2871</v>
@@ -34571,7 +34571,7 @@
         <v>32340</v>
       </c>
       <c r="B355" t="n">
-        <v>149675</v>
+        <v>181155</v>
       </c>
       <c r="C355" t="s">
         <v>2880</v>
@@ -34646,7 +34646,7 @@
         <v>32340</v>
       </c>
       <c r="B356" t="n">
-        <v>149676</v>
+        <v>181156</v>
       </c>
       <c r="C356" t="s">
         <v>2889</v>
@@ -34721,7 +34721,7 @@
         <v>32340</v>
       </c>
       <c r="B357" t="n">
-        <v>149677</v>
+        <v>181157</v>
       </c>
       <c r="C357" t="s">
         <v>2899</v>
@@ -34796,7 +34796,7 @@
         <v>32340</v>
       </c>
       <c r="B358" t="n">
-        <v>149678</v>
+        <v>181158</v>
       </c>
       <c r="C358" t="s">
         <v>2908</v>
@@ -34857,7 +34857,7 @@
         <v>32340</v>
       </c>
       <c r="B359" t="n">
-        <v>149679</v>
+        <v>181159</v>
       </c>
       <c r="C359" t="s">
         <v>2917</v>
@@ -34928,7 +34928,7 @@
         <v>32340</v>
       </c>
       <c r="B360" t="n">
-        <v>149680</v>
+        <v>181160</v>
       </c>
       <c r="C360" t="s">
         <v>2926</v>
@@ -35003,7 +35003,7 @@
         <v>32340</v>
       </c>
       <c r="B361" t="n">
-        <v>149681</v>
+        <v>181161</v>
       </c>
       <c r="C361" t="s">
         <v>2935</v>
@@ -35078,7 +35078,7 @@
         <v>32340</v>
       </c>
       <c r="B362" t="n">
-        <v>149682</v>
+        <v>181162</v>
       </c>
       <c r="C362" t="s">
         <v>2944</v>
@@ -35153,7 +35153,7 @@
         <v>32340</v>
       </c>
       <c r="B363" t="n">
-        <v>149683</v>
+        <v>181163</v>
       </c>
       <c r="C363" t="s">
         <v>2954</v>
@@ -35228,7 +35228,7 @@
         <v>32340</v>
       </c>
       <c r="B364" t="n">
-        <v>149684</v>
+        <v>181164</v>
       </c>
       <c r="C364" t="s">
         <v>2963</v>
@@ -35303,7 +35303,7 @@
         <v>32340</v>
       </c>
       <c r="B365" t="n">
-        <v>149685</v>
+        <v>181165</v>
       </c>
       <c r="C365" t="s">
         <v>2971</v>
@@ -35378,7 +35378,7 @@
         <v>32340</v>
       </c>
       <c r="B366" t="n">
-        <v>149686</v>
+        <v>181166</v>
       </c>
       <c r="C366" t="s">
         <v>2980</v>
@@ -35453,7 +35453,7 @@
         <v>32340</v>
       </c>
       <c r="B367" t="n">
-        <v>149687</v>
+        <v>181167</v>
       </c>
       <c r="C367" t="s">
         <v>2986</v>
@@ -35528,7 +35528,7 @@
         <v>32340</v>
       </c>
       <c r="B368" t="n">
-        <v>149688</v>
+        <v>181168</v>
       </c>
       <c r="C368" t="s">
         <v>2995</v>
@@ -35603,7 +35603,7 @@
         <v>32340</v>
       </c>
       <c r="B369" t="n">
-        <v>149689</v>
+        <v>181169</v>
       </c>
       <c r="C369" t="s">
         <v>3003</v>
@@ -35678,7 +35678,7 @@
         <v>32340</v>
       </c>
       <c r="B370" t="n">
-        <v>149690</v>
+        <v>181170</v>
       </c>
       <c r="C370" t="s">
         <v>3012</v>
@@ -35753,7 +35753,7 @@
         <v>32340</v>
       </c>
       <c r="B371" t="n">
-        <v>149691</v>
+        <v>181171</v>
       </c>
       <c r="C371" t="s">
         <v>3021</v>
@@ -35828,7 +35828,7 @@
         <v>32340</v>
       </c>
       <c r="B372" t="n">
-        <v>149692</v>
+        <v>181172</v>
       </c>
       <c r="C372" t="s">
         <v>3028</v>
@@ -35903,7 +35903,7 @@
         <v>32340</v>
       </c>
       <c r="B373" t="n">
-        <v>149693</v>
+        <v>181173</v>
       </c>
       <c r="C373" t="s">
         <v>3037</v>
@@ -35978,7 +35978,7 @@
         <v>32340</v>
       </c>
       <c r="B374" t="n">
-        <v>149694</v>
+        <v>181174</v>
       </c>
       <c r="C374" t="s">
         <v>3047</v>
@@ -36053,7 +36053,7 @@
         <v>32340</v>
       </c>
       <c r="B375" t="n">
-        <v>149695</v>
+        <v>181175</v>
       </c>
       <c r="C375" t="s">
         <v>3057</v>
@@ -36114,7 +36114,7 @@
         <v>32340</v>
       </c>
       <c r="B376" t="n">
-        <v>149696</v>
+        <v>181176</v>
       </c>
       <c r="C376" t="s">
         <v>3066</v>
@@ -36189,7 +36189,7 @@
         <v>32340</v>
       </c>
       <c r="B377" t="n">
-        <v>149697</v>
+        <v>181177</v>
       </c>
       <c r="C377" t="s">
         <v>3075</v>
@@ -36264,7 +36264,7 @@
         <v>32340</v>
       </c>
       <c r="B378" t="n">
-        <v>149698</v>
+        <v>181178</v>
       </c>
       <c r="C378" t="s">
         <v>3085</v>
@@ -36339,7 +36339,7 @@
         <v>32340</v>
       </c>
       <c r="B379" t="n">
-        <v>149699</v>
+        <v>181179</v>
       </c>
       <c r="C379" t="s">
         <v>3094</v>
@@ -36414,7 +36414,7 @@
         <v>32340</v>
       </c>
       <c r="B380" t="n">
-        <v>149700</v>
+        <v>181180</v>
       </c>
       <c r="C380" t="s">
         <v>3102</v>
@@ -36485,7 +36485,7 @@
         <v>32340</v>
       </c>
       <c r="B381" t="n">
-        <v>149701</v>
+        <v>181181</v>
       </c>
       <c r="C381" t="s">
         <v>3109</v>
@@ -36554,7 +36554,7 @@
         <v>32340</v>
       </c>
       <c r="B382" t="n">
-        <v>149702</v>
+        <v>181182</v>
       </c>
       <c r="C382" t="s">
         <v>3116</v>
@@ -36625,7 +36625,7 @@
         <v>32340</v>
       </c>
       <c r="B383" t="n">
-        <v>149703</v>
+        <v>181183</v>
       </c>
       <c r="C383" t="s">
         <v>3123</v>
@@ -36696,7 +36696,7 @@
         <v>32340</v>
       </c>
       <c r="B384" t="n">
-        <v>149704</v>
+        <v>181184</v>
       </c>
       <c r="C384" t="s">
         <v>3130</v>
@@ -36834,7 +36834,7 @@
         <v>32340</v>
       </c>
       <c r="B386" t="n">
-        <v>149705</v>
+        <v>181185</v>
       </c>
       <c r="C386" t="s">
         <v>3145</v>
@@ -36964,7 +36964,7 @@
         <v>32340</v>
       </c>
       <c r="B388" t="n">
-        <v>149706</v>
+        <v>181186</v>
       </c>
       <c r="C388" t="s">
         <v>3159</v>
@@ -37098,7 +37098,7 @@
         <v>32340</v>
       </c>
       <c r="B390" t="n">
-        <v>149707</v>
+        <v>181187</v>
       </c>
       <c r="C390" t="s">
         <v>3173</v>
@@ -37167,7 +37167,7 @@
         <v>32340</v>
       </c>
       <c r="B391" t="n">
-        <v>149708</v>
+        <v>181188</v>
       </c>
       <c r="C391" t="s">
         <v>3182</v>
